--- a/Inputs/Announcements-ForAllGroups.xlsx
+++ b/Inputs/Announcements-ForAllGroups.xlsx
@@ -29,10 +29,10 @@
     <t>categoryName</t>
   </si>
   <si>
-    <t>Announcement1-200120 (UI Network (Spanish))</t>
-  </si>
-  <si>
-    <t>Announcement1 Summary</t>
+    <t>Announcement1-230120(UI Network (Spanish)</t>
+  </si>
+  <si>
+    <t>Announcement1-230120Summary</t>
   </si>
   <si>
     <t>News</t>
@@ -44,10 +44,10 @@
     <t>Planning &amp; Strategy</t>
   </si>
   <si>
-    <t>Announcement2-200120 (Private Group)</t>
-  </si>
-  <si>
-    <t>Announcement2-200120 Summary</t>
+    <t>Announcement2-230120(Private Group)</t>
+  </si>
+  <si>
+    <t>Announcement2-230120Summary</t>
   </si>
   <si>
     <t>Tips</t>
@@ -59,10 +59,10 @@
     <t>Emerging Technologies</t>
   </si>
   <si>
-    <t>Announcement3-200120 (External Members)</t>
-  </si>
-  <si>
-    <t>Announcement3-200120 Summary</t>
+    <t>Announcement3-230120(External Members)</t>
+  </si>
+  <si>
+    <t>Announcement3-230120Summary</t>
   </si>
   <si>
     <t>Members</t>
@@ -74,10 +74,10 @@
     <t>Staffing &amp; Training</t>
   </si>
   <si>
-    <t>Announcement4-200120 (Network)</t>
-  </si>
-  <si>
-    <t>Announcement4-200120 Summary</t>
+    <t>Announcement4-230120(Network)</t>
+  </si>
+  <si>
+    <t>Announcement4-230120Summary</t>
   </si>
   <si>
     <t>Reports</t>
@@ -89,10 +89,10 @@
     <t>Management Technology</t>
   </si>
   <si>
-    <t>Announcement5-200120 (Distributed Resiliency)</t>
-  </si>
-  <si>
-    <t>Announcement5-200120 Summary</t>
+    <t>Announcement5-230120(Distributed Resiliency)</t>
+  </si>
+  <si>
+    <t>Announcement5-230120Summary</t>
   </si>
   <si>
     <t>Distributed Resiliency Group</t>
@@ -101,10 +101,10 @@
     <t>Risk &amp; Resiliency</t>
   </si>
   <si>
-    <t>Announcement6-200120 (Internal Admins)</t>
-  </si>
-  <si>
-    <t>Announcement6-200120 Summary</t>
+    <t>Announcement6-230120(Internal Admins)</t>
+  </si>
+  <si>
+    <t>Announcement6-230120Summary</t>
   </si>
   <si>
     <t>Internal Admin Group</t>
@@ -1368,7 +1368,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="33.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.3359" style="1" customWidth="1"/>
     <col min="2" max="2" width="36.3516" style="1" customWidth="1"/>
     <col min="3" max="4" width="21.8516" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.8516" style="1" customWidth="1"/>
